--- a/eastMaui/rawData/nodes_mixed.xlsx
+++ b/eastMaui/rawData/nodes_mixed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danwa\Documents\Programming\Trutta\HSHEP\EMaui\EMpackage\eastMaui\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD33D6-AF9E-4C36-B56E-22039A13E12D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38D7696-9C7F-429B-ABB8-927BAB6B518E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C52DA1FB-7AE4-4E2C-8739-9BE1B585D4D9}"/>
   </bookViews>
@@ -1973,8 +1973,8 @@
   <dimension ref="A1:S312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I309" sqref="I57:I309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,10 +5018,10 @@
         <v>158</v>
       </c>
       <c r="H57">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I57">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J57">
         <v>0.5</v>
@@ -5077,10 +5077,10 @@
         <v>158</v>
       </c>
       <c r="H58">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I58">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J58">
         <v>0.5</v>
@@ -5136,10 +5136,10 @@
         <v>158</v>
       </c>
       <c r="H59">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I59">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J59">
         <v>0.5</v>
@@ -5195,10 +5195,10 @@
         <v>158</v>
       </c>
       <c r="H60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I60">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J60">
         <v>0.5</v>
@@ -5254,10 +5254,10 @@
         <v>158</v>
       </c>
       <c r="H61">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I61">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J61">
         <v>0.5</v>
@@ -5313,10 +5313,10 @@
         <v>158</v>
       </c>
       <c r="H62">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I62">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J62">
         <v>0.5</v>
@@ -5372,10 +5372,10 @@
         <v>158</v>
       </c>
       <c r="H63">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I63">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J63">
         <v>0.5</v>
@@ -5431,10 +5431,10 @@
         <v>158</v>
       </c>
       <c r="H64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I64">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J64">
         <v>0.5</v>
@@ -5490,10 +5490,10 @@
         <v>158</v>
       </c>
       <c r="H65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J65">
         <v>0.5</v>
@@ -5549,10 +5549,10 @@
         <v>158</v>
       </c>
       <c r="H66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I66">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J66">
         <v>0.5</v>
@@ -5608,10 +5608,10 @@
         <v>158</v>
       </c>
       <c r="H67">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I67">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J67">
         <v>0.5</v>
@@ -5667,10 +5667,10 @@
         <v>158</v>
       </c>
       <c r="H68">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J68">
         <v>0.5</v>
@@ -5726,10 +5726,10 @@
         <v>158</v>
       </c>
       <c r="H69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I69">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J69">
         <v>0.5</v>
@@ -5785,10 +5785,10 @@
         <v>158</v>
       </c>
       <c r="H70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I70">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J70">
         <v>0.5</v>
@@ -5844,10 +5844,10 @@
         <v>158</v>
       </c>
       <c r="H71">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I71">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J71">
         <v>0.5</v>
@@ -5903,10 +5903,10 @@
         <v>158</v>
       </c>
       <c r="H72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I72">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J72">
         <v>0.5</v>
@@ -5962,10 +5962,10 @@
         <v>158</v>
       </c>
       <c r="H73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I73">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J73">
         <v>0.5</v>
@@ -6021,10 +6021,10 @@
         <v>158</v>
       </c>
       <c r="H74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I74">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J74">
         <v>0.5</v>
@@ -6080,10 +6080,10 @@
         <v>158</v>
       </c>
       <c r="H75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I75">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J75">
         <v>0.5</v>
@@ -6139,10 +6139,10 @@
         <v>158</v>
       </c>
       <c r="H76">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I76">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J76">
         <v>0.5</v>
@@ -6198,10 +6198,10 @@
         <v>158</v>
       </c>
       <c r="H77">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I77">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J77">
         <v>0.5</v>
@@ -6257,10 +6257,10 @@
         <v>158</v>
       </c>
       <c r="H78">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I78">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J78">
         <v>0.5</v>
@@ -6316,10 +6316,10 @@
         <v>158</v>
       </c>
       <c r="H79">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J79">
         <v>0.5</v>
@@ -6375,10 +6375,10 @@
         <v>158</v>
       </c>
       <c r="H80">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I80">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J80">
         <v>0.5</v>
@@ -6434,10 +6434,10 @@
         <v>158</v>
       </c>
       <c r="H81">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J81">
         <v>0.5</v>
@@ -6493,10 +6493,10 @@
         <v>158</v>
       </c>
       <c r="H82">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I82">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J82">
         <v>0.5</v>
@@ -6552,10 +6552,10 @@
         <v>158</v>
       </c>
       <c r="H83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I83">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J83">
         <v>0.5</v>
@@ -6611,10 +6611,10 @@
         <v>158</v>
       </c>
       <c r="H84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J84">
         <v>0.5</v>
@@ -6670,10 +6670,10 @@
         <v>158</v>
       </c>
       <c r="H85">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I85">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J85">
         <v>0.5</v>
@@ -6729,10 +6729,10 @@
         <v>158</v>
       </c>
       <c r="H86">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I86">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J86">
         <v>0.5</v>
@@ -6788,10 +6788,10 @@
         <v>158</v>
       </c>
       <c r="H87">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I87">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J87">
         <v>0.5</v>
@@ -6847,10 +6847,10 @@
         <v>158</v>
       </c>
       <c r="H88">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I88">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J88">
         <v>0.5</v>
@@ -6906,10 +6906,10 @@
         <v>158</v>
       </c>
       <c r="H89">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I89">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J89">
         <v>0.5</v>
@@ -6965,10 +6965,10 @@
         <v>158</v>
       </c>
       <c r="H90">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I90">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J90">
         <v>0.5</v>
@@ -7024,10 +7024,10 @@
         <v>158</v>
       </c>
       <c r="H91">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I91">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J91">
         <v>0.5</v>
@@ -7083,10 +7083,10 @@
         <v>158</v>
       </c>
       <c r="H92">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I92">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J92">
         <v>0.5</v>
@@ -7142,10 +7142,10 @@
         <v>158</v>
       </c>
       <c r="H93">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I93">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J93">
         <v>0.5</v>
@@ -7201,10 +7201,10 @@
         <v>158</v>
       </c>
       <c r="H94">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I94">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J94">
         <v>0.5</v>
@@ -7260,10 +7260,10 @@
         <v>158</v>
       </c>
       <c r="H95">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I95">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J95">
         <v>0.5</v>
@@ -7319,10 +7319,10 @@
         <v>158</v>
       </c>
       <c r="H96">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I96">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J96">
         <v>0.5</v>
@@ -7378,10 +7378,10 @@
         <v>158</v>
       </c>
       <c r="H97">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I97">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J97">
         <v>0.5</v>
@@ -7437,10 +7437,10 @@
         <v>158</v>
       </c>
       <c r="H98">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I98">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J98">
         <v>0.5</v>
@@ -7496,10 +7496,10 @@
         <v>158</v>
       </c>
       <c r="H99">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I99">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J99">
         <v>0.5</v>
@@ -7555,10 +7555,10 @@
         <v>158</v>
       </c>
       <c r="H100">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I100">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J100">
         <v>0.5</v>
@@ -7614,10 +7614,10 @@
         <v>158</v>
       </c>
       <c r="H101">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I101">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J101">
         <v>0.5</v>
@@ -7673,10 +7673,10 @@
         <v>158</v>
       </c>
       <c r="H102">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I102">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J102">
         <v>0.5</v>
@@ -7732,10 +7732,10 @@
         <v>158</v>
       </c>
       <c r="H103">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I103">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J103">
         <v>0.5</v>
@@ -7791,10 +7791,10 @@
         <v>158</v>
       </c>
       <c r="H104">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I104">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J104">
         <v>0.5</v>
@@ -7850,10 +7850,10 @@
         <v>158</v>
       </c>
       <c r="H105">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I105">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J105">
         <v>0.5</v>
@@ -7909,10 +7909,10 @@
         <v>158</v>
       </c>
       <c r="H106">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I106">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J106">
         <v>0.5</v>
@@ -7968,10 +7968,10 @@
         <v>158</v>
       </c>
       <c r="H107">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I107">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J107">
         <v>0.5</v>
@@ -8027,10 +8027,10 @@
         <v>158</v>
       </c>
       <c r="H108">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I108">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J108">
         <v>0.5</v>
@@ -8086,10 +8086,10 @@
         <v>158</v>
       </c>
       <c r="H109">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I109">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J109">
         <v>0.5</v>
@@ -8145,10 +8145,10 @@
         <v>158</v>
       </c>
       <c r="H110">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I110">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J110">
         <v>0.5</v>
@@ -8204,10 +8204,10 @@
         <v>158</v>
       </c>
       <c r="H111">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I111">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J111">
         <v>0.5</v>
@@ -8263,10 +8263,10 @@
         <v>158</v>
       </c>
       <c r="H112">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I112">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J112">
         <v>0.5</v>
@@ -8322,10 +8322,10 @@
         <v>158</v>
       </c>
       <c r="H113">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I113">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J113">
         <v>0.5</v>
@@ -8381,10 +8381,10 @@
         <v>158</v>
       </c>
       <c r="H114">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I114">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J114">
         <v>0.5</v>
@@ -8440,10 +8440,10 @@
         <v>158</v>
       </c>
       <c r="H115">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I115">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J115">
         <v>0.5</v>
@@ -8499,10 +8499,10 @@
         <v>158</v>
       </c>
       <c r="H116">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I116">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J116">
         <v>0.5</v>
@@ -8558,10 +8558,10 @@
         <v>158</v>
       </c>
       <c r="H117">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I117">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J117">
         <v>0.5</v>
@@ -8617,10 +8617,10 @@
         <v>158</v>
       </c>
       <c r="H118">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I118">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J118">
         <v>0.5</v>
@@ -8676,10 +8676,10 @@
         <v>158</v>
       </c>
       <c r="H119">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I119">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J119">
         <v>0.5</v>
@@ -8735,10 +8735,10 @@
         <v>158</v>
       </c>
       <c r="H120">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I120">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J120">
         <v>0.5</v>
@@ -8794,10 +8794,10 @@
         <v>158</v>
       </c>
       <c r="H121">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I121">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J121">
         <v>0.5</v>
@@ -8853,10 +8853,10 @@
         <v>158</v>
       </c>
       <c r="H122">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I122">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J122">
         <v>0.5</v>
@@ -8912,10 +8912,10 @@
         <v>158</v>
       </c>
       <c r="H123">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I123">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J123">
         <v>0.5</v>
@@ -8971,10 +8971,10 @@
         <v>158</v>
       </c>
       <c r="H124">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I124">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J124">
         <v>0.5</v>
@@ -9030,10 +9030,10 @@
         <v>158</v>
       </c>
       <c r="H125">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I125">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J125">
         <v>0.5</v>
@@ -9089,10 +9089,10 @@
         <v>158</v>
       </c>
       <c r="H126">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I126">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J126">
         <v>0.5</v>
@@ -9148,10 +9148,10 @@
         <v>158</v>
       </c>
       <c r="H127">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I127">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J127">
         <v>0.5</v>
@@ -9207,10 +9207,10 @@
         <v>158</v>
       </c>
       <c r="H128">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I128">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J128">
         <v>0.5</v>
@@ -9266,10 +9266,10 @@
         <v>158</v>
       </c>
       <c r="H129">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I129">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J129">
         <v>0.5</v>
@@ -9325,10 +9325,10 @@
         <v>158</v>
       </c>
       <c r="H130">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I130">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J130">
         <v>0.5</v>
@@ -9384,10 +9384,10 @@
         <v>158</v>
       </c>
       <c r="H131">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I131">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J131">
         <v>0.5</v>
@@ -9443,10 +9443,10 @@
         <v>158</v>
       </c>
       <c r="H132">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I132">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J132">
         <v>0.5</v>
@@ -9502,10 +9502,10 @@
         <v>158</v>
       </c>
       <c r="H133">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I133">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J133">
         <v>0.5</v>
@@ -9561,10 +9561,10 @@
         <v>158</v>
       </c>
       <c r="H134">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I134">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J134">
         <v>0.5</v>
@@ -9620,10 +9620,10 @@
         <v>158</v>
       </c>
       <c r="H135">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I135">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J135">
         <v>0.5</v>
@@ -9679,10 +9679,10 @@
         <v>158</v>
       </c>
       <c r="H136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I136">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J136">
         <v>0.5</v>
@@ -9738,10 +9738,10 @@
         <v>158</v>
       </c>
       <c r="H137">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I137">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J137">
         <v>0.5</v>
@@ -9797,10 +9797,10 @@
         <v>158</v>
       </c>
       <c r="H138">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I138">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J138">
         <v>0.5</v>
@@ -9856,10 +9856,10 @@
         <v>158</v>
       </c>
       <c r="H139">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I139">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J139">
         <v>0.5</v>
@@ -9915,10 +9915,10 @@
         <v>158</v>
       </c>
       <c r="H140">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I140">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J140">
         <v>0.5</v>
@@ -9974,10 +9974,10 @@
         <v>158</v>
       </c>
       <c r="H141">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I141">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J141">
         <v>0.5</v>
@@ -10033,10 +10033,10 @@
         <v>158</v>
       </c>
       <c r="H142">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I142">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J142">
         <v>0.5</v>
@@ -10092,10 +10092,10 @@
         <v>158</v>
       </c>
       <c r="H143">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I143">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J143">
         <v>0.5</v>
@@ -10151,10 +10151,10 @@
         <v>158</v>
       </c>
       <c r="H144">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I144">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J144">
         <v>0.5</v>
@@ -10210,10 +10210,10 @@
         <v>158</v>
       </c>
       <c r="H145">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I145">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J145">
         <v>0.5</v>
@@ -10269,10 +10269,10 @@
         <v>158</v>
       </c>
       <c r="H146">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I146">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J146">
         <v>0.5</v>
@@ -10328,10 +10328,10 @@
         <v>158</v>
       </c>
       <c r="H147">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I147">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J147">
         <v>0.5</v>
@@ -10387,10 +10387,10 @@
         <v>158</v>
       </c>
       <c r="H148">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I148">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J148">
         <v>0.5</v>
@@ -10446,10 +10446,10 @@
         <v>158</v>
       </c>
       <c r="H149">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I149">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J149">
         <v>0.5</v>
@@ -10505,10 +10505,10 @@
         <v>158</v>
       </c>
       <c r="H150">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I150">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J150">
         <v>0.5</v>
@@ -10564,10 +10564,10 @@
         <v>158</v>
       </c>
       <c r="H151">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I151">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J151">
         <v>0.5</v>
@@ -10623,10 +10623,10 @@
         <v>158</v>
       </c>
       <c r="H152">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I152">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J152">
         <v>0.5</v>
@@ -10682,10 +10682,10 @@
         <v>158</v>
       </c>
       <c r="H153">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I153">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J153">
         <v>0.5</v>
@@ -10741,10 +10741,10 @@
         <v>158</v>
       </c>
       <c r="H154">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I154">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J154">
         <v>0.5</v>
@@ -10800,10 +10800,10 @@
         <v>158</v>
       </c>
       <c r="H155">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I155">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J155">
         <v>0.5</v>
@@ -10859,10 +10859,10 @@
         <v>158</v>
       </c>
       <c r="H156">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I156">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J156">
         <v>0.5</v>
@@ -10918,10 +10918,10 @@
         <v>158</v>
       </c>
       <c r="H157">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I157">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J157">
         <v>0.5</v>
@@ -10977,10 +10977,10 @@
         <v>158</v>
       </c>
       <c r="H158">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I158">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J158">
         <v>0.5</v>
@@ -11036,10 +11036,10 @@
         <v>158</v>
       </c>
       <c r="H159">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I159">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J159">
         <v>0.5</v>
@@ -11095,10 +11095,10 @@
         <v>158</v>
       </c>
       <c r="H160">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I160">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J160">
         <v>0.5</v>
@@ -11154,10 +11154,10 @@
         <v>158</v>
       </c>
       <c r="H161">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I161">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J161">
         <v>0.5</v>
@@ -11213,10 +11213,10 @@
         <v>158</v>
       </c>
       <c r="H162">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I162">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J162">
         <v>0.5</v>
@@ -11272,10 +11272,10 @@
         <v>158</v>
       </c>
       <c r="H163">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I163">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J163">
         <v>0.5</v>
@@ -11331,10 +11331,10 @@
         <v>158</v>
       </c>
       <c r="H164">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I164">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J164">
         <v>0.5</v>
@@ -11390,10 +11390,10 @@
         <v>158</v>
       </c>
       <c r="H165">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I165">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J165">
         <v>0.5</v>
@@ -11449,10 +11449,10 @@
         <v>158</v>
       </c>
       <c r="H166">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I166">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J166">
         <v>0.5</v>
@@ -11508,10 +11508,10 @@
         <v>158</v>
       </c>
       <c r="H167">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I167">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J167">
         <v>0.5</v>
@@ -11567,10 +11567,10 @@
         <v>158</v>
       </c>
       <c r="H168">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I168">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J168">
         <v>0.5</v>
@@ -11626,10 +11626,10 @@
         <v>158</v>
       </c>
       <c r="H169">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I169">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J169">
         <v>0.5</v>
@@ -11685,10 +11685,10 @@
         <v>158</v>
       </c>
       <c r="H170">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I170">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J170">
         <v>0.5</v>
@@ -11744,10 +11744,10 @@
         <v>158</v>
       </c>
       <c r="H171">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I171">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J171">
         <v>0.5</v>
@@ -11803,10 +11803,10 @@
         <v>158</v>
       </c>
       <c r="H172">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I172">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J172">
         <v>0.5</v>
@@ -11862,10 +11862,10 @@
         <v>158</v>
       </c>
       <c r="H173">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I173">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J173">
         <v>0.5</v>
@@ -11921,10 +11921,10 @@
         <v>158</v>
       </c>
       <c r="H174">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I174">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J174">
         <v>0.5</v>
@@ -11980,10 +11980,10 @@
         <v>158</v>
       </c>
       <c r="H175">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I175">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J175">
         <v>0.5</v>
@@ -12039,10 +12039,10 @@
         <v>158</v>
       </c>
       <c r="H176">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I176">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J176">
         <v>0.5</v>
@@ -12098,10 +12098,10 @@
         <v>158</v>
       </c>
       <c r="H177">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I177">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J177">
         <v>0.5</v>
@@ -12157,10 +12157,10 @@
         <v>158</v>
       </c>
       <c r="H178">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I178">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J178">
         <v>0.5</v>
@@ -12216,10 +12216,10 @@
         <v>158</v>
       </c>
       <c r="H179">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I179">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J179">
         <v>0.5</v>
@@ -12275,10 +12275,10 @@
         <v>158</v>
       </c>
       <c r="H180">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I180">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J180">
         <v>0.5</v>
@@ -12334,10 +12334,10 @@
         <v>158</v>
       </c>
       <c r="H181">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I181">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J181">
         <v>0.5</v>
@@ -12393,10 +12393,10 @@
         <v>158</v>
       </c>
       <c r="H182">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I182">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J182">
         <v>0.5</v>
@@ -12452,10 +12452,10 @@
         <v>158</v>
       </c>
       <c r="H183">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I183">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J183">
         <v>0.5</v>
@@ -12511,10 +12511,10 @@
         <v>158</v>
       </c>
       <c r="H184">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I184">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J184">
         <v>0.5</v>
@@ -12570,10 +12570,10 @@
         <v>158</v>
       </c>
       <c r="H185">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I185">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J185">
         <v>0.5</v>
@@ -12629,10 +12629,10 @@
         <v>158</v>
       </c>
       <c r="H186">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I186">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J186">
         <v>0.5</v>
@@ -12688,10 +12688,10 @@
         <v>158</v>
       </c>
       <c r="H187">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I187">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J187">
         <v>0.5</v>
@@ -12747,10 +12747,10 @@
         <v>158</v>
       </c>
       <c r="H188">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I188">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J188">
         <v>0.5</v>
@@ -12806,10 +12806,10 @@
         <v>158</v>
       </c>
       <c r="H189">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I189">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J189">
         <v>0.5</v>
@@ -12865,10 +12865,10 @@
         <v>158</v>
       </c>
       <c r="H190">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I190">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J190">
         <v>0.5</v>
@@ -12924,10 +12924,10 @@
         <v>158</v>
       </c>
       <c r="H191">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I191">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J191">
         <v>0.5</v>
@@ -12983,10 +12983,10 @@
         <v>158</v>
       </c>
       <c r="H192">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I192">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J192">
         <v>0.5</v>
@@ -13042,10 +13042,10 @@
         <v>158</v>
       </c>
       <c r="H193">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I193">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J193">
         <v>0.5</v>
@@ -13101,10 +13101,10 @@
         <v>158</v>
       </c>
       <c r="H194">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I194">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J194">
         <v>0.5</v>
@@ -13160,10 +13160,10 @@
         <v>158</v>
       </c>
       <c r="H195">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I195">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J195">
         <v>0.5</v>
@@ -13219,10 +13219,10 @@
         <v>158</v>
       </c>
       <c r="H196">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I196">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J196">
         <v>0.5</v>
@@ -13278,10 +13278,10 @@
         <v>158</v>
       </c>
       <c r="H197">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I197">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J197">
         <v>0.5</v>
@@ -13337,10 +13337,10 @@
         <v>158</v>
       </c>
       <c r="H198">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I198">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J198">
         <v>0.5</v>
@@ -13396,10 +13396,10 @@
         <v>158</v>
       </c>
       <c r="H199">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I199">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J199">
         <v>0.5</v>
@@ -13455,10 +13455,10 @@
         <v>158</v>
       </c>
       <c r="H200">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I200">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J200">
         <v>0.5</v>
@@ -13514,10 +13514,10 @@
         <v>158</v>
       </c>
       <c r="H201">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I201">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J201">
         <v>0.5</v>
@@ -13573,10 +13573,10 @@
         <v>158</v>
       </c>
       <c r="H202">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I202">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J202">
         <v>0.5</v>
@@ -13632,10 +13632,10 @@
         <v>158</v>
       </c>
       <c r="H203">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I203">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J203">
         <v>0.5</v>
@@ -13691,10 +13691,10 @@
         <v>158</v>
       </c>
       <c r="H204">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I204">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J204">
         <v>0.5</v>
@@ -13750,10 +13750,10 @@
         <v>158</v>
       </c>
       <c r="H205">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I205">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J205">
         <v>0.5</v>
@@ -13809,10 +13809,10 @@
         <v>158</v>
       </c>
       <c r="H206">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I206">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J206">
         <v>0.5</v>
@@ -13868,10 +13868,10 @@
         <v>158</v>
       </c>
       <c r="H207">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I207">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J207">
         <v>0.5</v>
@@ -13927,10 +13927,10 @@
         <v>158</v>
       </c>
       <c r="H208">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I208">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J208">
         <v>0.5</v>
@@ -13986,10 +13986,10 @@
         <v>158</v>
       </c>
       <c r="H209">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I209">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J209">
         <v>0.5</v>
@@ -14045,10 +14045,10 @@
         <v>158</v>
       </c>
       <c r="H210">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I210">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J210">
         <v>0.5</v>
@@ -14104,10 +14104,10 @@
         <v>158</v>
       </c>
       <c r="H211">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I211">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J211">
         <v>0.5</v>
@@ -14163,10 +14163,10 @@
         <v>158</v>
       </c>
       <c r="H212">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I212">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J212">
         <v>0.5</v>
@@ -14222,10 +14222,10 @@
         <v>158</v>
       </c>
       <c r="H213">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I213">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J213">
         <v>0.5</v>
@@ -14281,10 +14281,10 @@
         <v>158</v>
       </c>
       <c r="H214">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I214">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J214">
         <v>0.5</v>
@@ -14340,10 +14340,10 @@
         <v>158</v>
       </c>
       <c r="H215">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I215">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J215">
         <v>0.5</v>
@@ -14399,10 +14399,10 @@
         <v>158</v>
       </c>
       <c r="H216">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I216">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J216">
         <v>0.5</v>
@@ -14458,10 +14458,10 @@
         <v>158</v>
       </c>
       <c r="H217">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I217">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J217">
         <v>0.5</v>
@@ -14517,10 +14517,10 @@
         <v>158</v>
       </c>
       <c r="H218">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I218">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J218">
         <v>0.5</v>
@@ -14576,10 +14576,10 @@
         <v>158</v>
       </c>
       <c r="H219">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I219">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J219">
         <v>0.5</v>
@@ -14635,10 +14635,10 @@
         <v>158</v>
       </c>
       <c r="H220">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I220">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J220">
         <v>0.5</v>
@@ -14694,10 +14694,10 @@
         <v>158</v>
       </c>
       <c r="H221">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I221">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J221">
         <v>0.5</v>
@@ -14753,10 +14753,10 @@
         <v>158</v>
       </c>
       <c r="H222">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I222">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J222">
         <v>0.5</v>
@@ -14812,10 +14812,10 @@
         <v>158</v>
       </c>
       <c r="H223">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I223">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J223">
         <v>0.5</v>
@@ -14871,10 +14871,10 @@
         <v>158</v>
       </c>
       <c r="H224">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I224">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J224">
         <v>0.5</v>
@@ -14930,10 +14930,10 @@
         <v>158</v>
       </c>
       <c r="H225">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I225">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J225">
         <v>0.5</v>
@@ -14989,10 +14989,10 @@
         <v>158</v>
       </c>
       <c r="H226">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I226">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J226">
         <v>0.5</v>
@@ -15048,10 +15048,10 @@
         <v>158</v>
       </c>
       <c r="H227">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I227">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J227">
         <v>0.5</v>
@@ -15107,10 +15107,10 @@
         <v>158</v>
       </c>
       <c r="H228">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I228">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J228">
         <v>0.5</v>
